--- a/doc_ex2/Algorithm comparisons/Algo2 BM3 ts1 comparison.xlsx
+++ b/doc_ex2/Algorithm comparisons/Algo2 BM3 ts1 comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\doc_ex2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\Csv_to_Kml_Converter\doc_ex2\Algorithm comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>Ariel_University</t>
   </si>
@@ -87,13 +87,16 @@
   </si>
   <si>
     <t>Average for all rows</t>
+  </si>
+  <si>
+    <t>Average of Lat and Lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +135,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +177,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -346,13 +361,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +379,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,9 +407,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -708,49 +730,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1655062-209A-4B36-861B-E6DC8C57DFF6}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.4609375" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
+      <c r="S1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +789,7 @@
       <c r="D2">
         <v>35.209699133932197</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="6">
         <v>702.14287995796701</v>
       </c>
       <c r="F2" t="s">
@@ -782,12 +808,12 @@
         <v>694.30614425961403</v>
       </c>
       <c r="L2">
-        <f>C2-H2</f>
-        <v>-1.2329316677011093E-3</v>
+        <f>ABS(C2-H2)</f>
+        <v>1.2329316677011093E-3</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:N17" si="0">D2-I2</f>
-        <v>-8.6685321929991233E-4</v>
+        <f t="shared" ref="M2:N2" si="0">ABS(D2-I2)</f>
+        <v>8.6685321929991233E-4</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -795,14 +821,18 @@
       </c>
       <c r="O2">
         <f>(L2+M2+N2)/3</f>
-        <v>2.6115453044886601</v>
+        <v>2.6129451610799941</v>
       </c>
       <c r="Q2" s="5">
         <f>AVERAGE(O2:O18)</f>
-        <v>3.2406382183049329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.2490386861940763</v>
+      </c>
+      <c r="S2" s="17">
+        <f>AVERAGE(L2:L18,M2:M18)</f>
+        <v>3.2505688387896676E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -834,23 +864,23 @@
         <v>707.4466274202</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:N18" si="1">C3-H3</f>
+        <f t="shared" ref="L3:L18" si="1">ABS(C3-H3)</f>
         <v>3.0154346902122597E-5</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:M18" si="2">ABS(D3-I3)</f>
         <v>2.605793129362155E-5</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N18" si="3">ABS(E3-J3)</f>
         <v>0.46770472144498854</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O5" si="2">(L3+M3+N3)/3</f>
+        <f t="shared" ref="O3:O5" si="4">(L3+M3+N3)/3</f>
         <v>0.15592031124106143</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -883,22 +913,22 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>-1.1717764593299762E-5</v>
+        <v>1.1717764593299762E-5</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2446088059763269E-4</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.968909835712907</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
-        <v>6.3232075262763034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="4"/>
+        <v>6.3232153381193656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -931,22 +961,22 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.0835426440157789E-4</v>
+        <v>2.0835426440157789E-4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4636954399758224E-4</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.525309211951026</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
-        <v>5.1751490757435405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="4"/>
+        <v>5.1752879785864749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -979,22 +1009,22 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>-1.6123437330151091E-4</v>
+        <v>1.6123437330151091E-4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4660463379811972E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.3077754346180654</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O18" si="3">(L6+M6+N6)/3</f>
-        <v>1.7692536016261873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" ref="O6:O18" si="5">(L6+M6+N6)/3</f>
+        <v>1.7693610912083884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1027,22 +1057,22 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>-4.9707778179453044E-4</v>
+        <v>4.9707778179453044E-4</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>-4.3779005079613853E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.3779005079613853E-4</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.8548504618549941</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
-        <v>1.2846385313408011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>1.2852617765625283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1075,22 +1105,22 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>-2.2807032060256915E-4</v>
+        <v>2.2807032060256915E-4</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>-1.8943278669780739E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8943278669780739E-4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.0369841102500459</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
-        <v>1.3455222023809152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>1.345800537785782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1126,19 +1156,19 @@
         <v>4.8552650198985248E-5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.4184811889967932E-4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.521496655284977</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8406956853513585</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1174,19 +1204,19 @@
         <v>1.0466934405428674E-5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9700010014389591E-6</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.9453387610801656E-3</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9859252321623444E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1219,22 +1249,22 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>-6.1020435801140138E-5</v>
+        <v>6.1020435801140138E-5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4119019602485423E-5</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5413821231489919</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1.1804517405775978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>1.1804924208681318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1267,22 +1297,22 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>-3.0079404879757021E-4</v>
+        <v>3.0079404879757021E-4</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.639471021979034E-4</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.55938310302497</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>5.8531154186927905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>5.853315948058655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1315,22 +1345,22 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>-2.4348397650442166E-4</v>
+        <v>2.4348397650442166E-4</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2432889002650427E-5</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.4809846148140196</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>2.8269345212421726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>2.8270968438931754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1363,22 +1393,22 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>-8.2634661679747978E-4</v>
+        <v>8.2634661679747978E-4</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
-        <v>-6.3414486159985017E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.3414486159985017E-4</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.33567259684196</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
-        <v>4.4447373684545211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>4.445711029440119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1411,22 +1441,22 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>-6.540055869024286E-4</v>
+        <v>6.540055869024286E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
-        <v>-7.5406533497357486E-5</v>
+        <f t="shared" si="2"/>
+        <v>7.5406533497357486E-5</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.22220797507498</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
-        <v>5.4071595209848597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>5.4076457957317929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1459,22 +1489,22 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>-7.2939337079702682E-4</v>
+        <v>7.2939337079702682E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6279155079956809E-4</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24.942677780991062</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
-        <v>8.3140370597236881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>8.3145233219708867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1507,22 +1537,22 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>-7.4980927050205537E-4</v>
+        <v>7.4980927050205537E-4</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>-5.3544589390241981E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.3544589390241981E-4</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.876341626994986</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
-        <v>4.6250187906101941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.85">
+        <f t="shared" si="5"/>
+        <v>4.6258756273864634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1555,68 +1585,68 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>-5.9264481961918136E-6</v>
+        <v>5.9264481961918136E-6</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>-2.9191767012548553E-6</v>
+        <f t="shared" si="2"/>
+        <v>2.9191767012548553E-6</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>-0.20555977272397286</v>
+        <f t="shared" si="3"/>
+        <v>0.20555977272397286</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
-        <v>-6.8522872782956767E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.85">
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.85">
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.85">
-      <c r="E34" s="3"/>
+        <f t="shared" si="5"/>
+        <v>6.8522872782956767E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
